--- a/APM files/128788863/MinGoLive.xlsx
+++ b/APM files/128788863/MinGoLive.xlsx
@@ -5,42 +5,60 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128829237\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128788863\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C772C-1106-49FD-92B5-D81C540C9642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2517149-2173-4275-B54E-B59D7A1F3318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="3075" windowWidth="22905" windowHeight="16200" xr2:uid="{880E26F4-B84E-4612-A879-24FC9D29F2AA}"/>
+    <workbookView xWindow="14865" yWindow="5895" windowWidth="23175" windowHeight="14085" xr2:uid="{CAB3D529-C134-4C15-AB44-78472DBE448C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="MinGoLive_Report_Production_202" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$E$23</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Provider Property ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Expedia ID</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Regulatory Compliant</t>
   </si>
   <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms</t>
+  </si>
+  <si>
+    <t>Number of Bathrooms</t>
+  </si>
+  <si>
     <t>Active Products</t>
   </si>
   <si>
     <t>Sufficient Inventory</t>
   </si>
   <si>
-    <t>V5961</t>
+    <t>Apartments Branka</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>House Blanka</t>
+  </si>
+  <si>
+    <t>Apartment Anica</t>
+  </si>
+  <si>
+    <t>Apartment 3M</t>
   </si>
 </sst>
 </file>
@@ -524,9 +542,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -572,12 +589,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -592,58 +611,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -976,23 +949,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8EE2AD-DDDE-4E4B-A9B9-968AA3C6C7C5}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747922A3-A280-44DF-8212-4B37EF97D674}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G4" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,410 +984,131 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>59731</v>
-      </c>
-      <c r="B2" s="1">
-        <v>37833680</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>37833667</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>78591</v>
-      </c>
-      <c r="B3" s="1">
-        <v>56203803</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>38161847</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>47211</v>
-      </c>
-      <c r="B4">
+        <v>38161830</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>38231185</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>42891</v>
-      </c>
-      <c r="B5">
-        <v>66027360</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>76521</v>
-      </c>
-      <c r="B6">
-        <v>46499651</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>36551</v>
-      </c>
-      <c r="B7">
-        <v>38161986</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>38539195</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>41101</v>
-      </c>
-      <c r="B9">
-        <v>38162126</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>40521</v>
-      </c>
-      <c r="B10">
-        <v>38162299</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>40031</v>
-      </c>
-      <c r="B11">
-        <v>38162359</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>32601</v>
-      </c>
-      <c r="B12">
-        <v>38113001</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>54531</v>
-      </c>
-      <c r="B13">
-        <v>38193576</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>45051</v>
-      </c>
-      <c r="B14">
-        <v>38193046</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>47491</v>
-      </c>
-      <c r="B15">
-        <v>38193158</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>30131</v>
-      </c>
-      <c r="B16">
-        <v>37833586</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>37651</v>
-      </c>
-      <c r="B17">
-        <v>38161887</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>72371</v>
-      </c>
-      <c r="B18">
-        <v>42410305</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>41091</v>
-      </c>
-      <c r="B19">
-        <v>38162332</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13411</v>
-      </c>
-      <c r="B20">
-        <v>38092070</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>34441</v>
-      </c>
-      <c r="B21">
-        <v>38161634</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>36381</v>
-      </c>
-      <c r="B22">
-        <v>38161830</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>37631</v>
-      </c>
-      <c r="B23">
-        <v>38161847</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>47651</v>
-      </c>
-      <c r="B24">
-        <v>37833667</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{3A8EE2AD-DDDE-4E4B-A9B9-968AA3C6C7C5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
-      <sortCondition sortBy="cellColor" ref="C1:C23" dxfId="4"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A1:E24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H5">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>